--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34024466-339D-4BD2-A173-40A348BB416A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B558A8-7384-497C-8980-7114C984439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期目标" sheetId="1" r:id="rId1"/>
@@ -905,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3E297-8015-48C0-A768-C852B8B9E1B5}">
   <dimension ref="B2:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB664A95-C8C2-4E10-B367-FC7D555AF8C2}">
   <dimension ref="A2:L9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B558A8-7384-497C-8980-7114C984439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6995A3A0-7ECC-4222-B14B-0937E6690F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期目标" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 引用XUL的脚脚本，添加缓存的功能，减少卡顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 添加各种提示，增加脚本的交互性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,6 +394,10 @@
   </si>
   <si>
     <t>更新 项目的物理结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 引用XUL的脚本，添加缓存的功能，减少卡顿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -803,16 +803,16 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -823,7 +823,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>26</v>
@@ -834,7 +834,7 @@
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
@@ -852,10 +852,10 @@
     <row r="6" spans="2:5">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -906,7 +906,7 @@
   <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -949,7 +949,9 @@
       <c r="H3" s="5">
         <v>17</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5">
+        <v>19</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
@@ -975,7 +977,9 @@
       <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
@@ -995,7 +999,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="3"/>
@@ -1098,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB664A95-C8C2-4E10-B367-FC7D555AF8C2}">
   <dimension ref="A2:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1185,9 +1189,6 @@
     </row>
     <row r="6" spans="1:12" ht="19">
       <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
         <v>30</v>
@@ -1205,7 +1206,7 @@
       <c r="A7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1265,7 +1266,7 @@
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6995A3A0-7ECC-4222-B14B-0937E6690F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A144D-A397-40A3-9F4D-B7087BD0F03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期目标" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
-    <t>生成最小压缩的包</t>
-  </si>
-  <si>
     <t>打关键帧的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,15 +48,6 @@
   <si>
     <t>镜头有关脚本</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写插件代码示例,展示如何封装插件</t>
-  </si>
-  <si>
-    <t>编写一键安装命令 ,研究如何简化项目安装流程</t>
-  </si>
-  <si>
-    <t>使用 `r.js` 将RequireJS项目编译为单文件</t>
   </si>
   <si>
     <r>
@@ -398,6 +386,22 @@
   </si>
   <si>
     <t xml:space="preserve"> 引用XUL的脚本，添加缓存的功能，减少卡顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写一键安装命令 ,研究如何简化项目安装流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成最小压缩的包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 `r.js` 将RequireJS项目编译为单文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写插件代码示例,展示如何封装插件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +471,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -505,6 +515,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -789,13 +803,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="33.75" customWidth="1"/>
     <col min="4" max="4" width="35.4140625" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
@@ -803,59 +817,59 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1"/>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -885,7 +899,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -906,7 +920,7 @@
   <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -932,7 +946,7 @@
     <row r="3" spans="2:13" ht="19">
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5">
         <v>8</v>
@@ -960,25 +974,25 @@
     <row r="4" spans="2:13" ht="20.5">
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -988,18 +1002,18 @@
     <row r="5" spans="2:13" ht="19.5">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="3"/>
@@ -1102,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB664A95-C8C2-4E10-B367-FC7D555AF8C2}">
   <dimension ref="A2:L9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1114,13 +1128,13 @@
     <row r="2" spans="1:12" ht="19">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1133,14 +1147,14 @@
     </row>
     <row r="3" spans="1:12" ht="19">
       <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1154,11 +1168,11 @@
     <row r="4" spans="1:12" ht="19">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1172,11 +1186,11 @@
     <row r="5" spans="1:12" ht="19">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1191,7 +1205,7 @@
       <c r="A6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1206,7 +1220,7 @@
       <c r="A7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1254,19 +1268,19 @@
   <dimension ref="C4:C5"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304A144D-A397-40A3-9F4D-B7087BD0F03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EE2DDF-A532-4975-886A-6B33BD1CA164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期目标" sheetId="1" r:id="rId1"/>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -855,7 +855,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -867,9 +867,6 @@
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -919,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3E297-8015-48C0-A768-C852B8B9E1B5}">
   <dimension ref="B2:M11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -966,7 +963,9 @@
       <c r="I3" s="5">
         <v>19</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>26</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
@@ -994,7 +993,9 @@
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
@@ -1016,7 +1017,9 @@
         <v>35</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
@@ -1030,7 +1033,9 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
@@ -1044,7 +1049,9 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
       <c r="M7" s="3"/>
@@ -1116,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB664A95-C8C2-4E10-B367-FC7D555AF8C2}">
   <dimension ref="A2:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1147,14 +1154,8 @@
     </row>
     <row r="3" spans="1:12" ht="19">
       <c r="A3" s="2"/>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1265,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C592B-182E-401C-9C1A-AC8204AA6E12}">
-  <dimension ref="C4:C5"/>
+  <dimension ref="C5"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -1273,11 +1274,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="4" spans="3:3">
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
         <v>33</v>

--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EE2DDF-A532-4975-886A-6B33BD1CA164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41753CDF-28CF-4AA8-8983-85B8E9BCBD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期目标" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>打关键帧的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,14 @@
   </si>
   <si>
     <t>编写插件代码示例,展示如何封装插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context添加过多的全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XUL 运行速度太慢，计划使用原脚本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -848,16 +856,10 @@
       <c r="C4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1"/>
-      <c r="C5" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
@@ -895,9 +897,6 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -917,7 +916,7 @@
   <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -966,7 +965,9 @@
       <c r="J3" s="3">
         <v>26</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>30</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
     </row>
@@ -996,7 +997,9 @@
       <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
@@ -1020,7 +1023,9 @@
       <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
     </row>
@@ -1036,7 +1041,9 @@
       <c r="J6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
     </row>
@@ -1123,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB664A95-C8C2-4E10-B367-FC7D555AF8C2}">
   <dimension ref="A2:L9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1266,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C592B-182E-401C-9C1A-AC8204AA6E12}">
-  <dimension ref="C5"/>
+  <dimension ref="C5:C7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1279,6 +1286,16 @@
         <v>33</v>
       </c>
     </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41753CDF-28CF-4AA8-8983-85B8E9BCBD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133621FE-8598-46EC-9B7B-639972120D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期目标" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>打关键帧的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,9 @@
   <si>
     <t>XUL 运行速度太慢，计划使用原脚本</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#07.一键变身  前后相反，待修正</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,6 +501,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -511,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -527,6 +536,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -811,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -916,7 +928,7 @@
   <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1130,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB664A95-C8C2-4E10-B367-FC7D555AF8C2}">
   <dimension ref="A2:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1161,7 +1173,7 @@
     </row>
     <row r="3" spans="1:12" ht="19">
       <c r="A3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3"/>
@@ -1193,7 +1205,7 @@
     </row>
     <row r="5" spans="1:12" ht="19">
       <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
@@ -1212,7 +1224,7 @@
     <row r="6" spans="1:12" ht="19">
       <c r="A6" s="2"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="3"/>
@@ -1273,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C592B-182E-401C-9C1A-AC8204AA6E12}">
-  <dimension ref="C5:C7"/>
+  <dimension ref="C5:C8"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1296,6 +1308,11 @@
         <v>42</v>
       </c>
     </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133621FE-8598-46EC-9B7B-639972120D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B1522-886A-497C-819D-72C25EB2302A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期目标" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>打关键帧的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,6 +414,10 @@
   </si>
   <si>
     <t>#07.一键变身  前后相反，待修正</t>
+  </si>
+  <si>
+    <t>打包安装应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1142,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB664A95-C8C2-4E10-B367-FC7D555AF8C2}">
   <dimension ref="A2:L9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1253,7 +1257,9 @@
     </row>
     <row r="8" spans="1:12" ht="19">
       <c r="A8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
@@ -1287,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C592B-182E-401C-9C1A-AC8204AA6E12}">
   <dimension ref="C5:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B1522-886A-497C-819D-72C25EB2302A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E22E31B-7BE3-4382-A507-EFBF3F9D2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期目标" sheetId="1" r:id="rId1"/>
     <sheet name="2025-04" sheetId="2" r:id="rId2"/>
     <sheet name="计划更新" sheetId="3" r:id="rId3"/>
-    <sheet name="bug" sheetId="4" r:id="rId4"/>
+    <sheet name="2025-05" sheetId="5" r:id="rId4"/>
+    <sheet name="bug" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,17 +29,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>打关键帧的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>多图层的处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内心独白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -337,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,6 +410,10 @@
   </si>
   <si>
     <t>打包安装应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内心独白  框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -545,6 +542,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -828,7 +830,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -841,36 +843,36 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -884,14 +886,16 @@
     <row r="6" spans="2:5">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" ht="19">
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
@@ -932,7 +936,7 @@
   <dimension ref="B2:M11"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -958,7 +962,7 @@
     <row r="3" spans="2:13" ht="19">
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5">
         <v>8</v>
@@ -990,31 +994,31 @@
     <row r="4" spans="2:13" ht="20.5">
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
@@ -1022,22 +1026,22 @@
     <row r="5" spans="2:13" ht="19.5">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>0</v>
@@ -1054,11 +1058,8 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
@@ -1073,7 +1074,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
@@ -1146,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB664A95-C8C2-4E10-B367-FC7D555AF8C2}">
   <dimension ref="A2:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1158,13 +1159,10 @@
     <row r="2" spans="1:12" ht="19">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1177,8 +1175,11 @@
     </row>
     <row r="3" spans="1:12" ht="19">
       <c r="A3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1191,11 +1192,10 @@
     </row>
     <row r="4" spans="1:12" ht="19">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="3"/>
@@ -1209,12 +1209,8 @@
     </row>
     <row r="5" spans="1:12" ht="19">
       <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1227,10 +1223,6 @@
     </row>
     <row r="6" spans="1:12" ht="19">
       <c r="A6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
@@ -1243,9 +1235,6 @@
     <row r="7" spans="1:12" ht="19">
       <c r="A7" s="2"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
@@ -1257,9 +1246,6 @@
     </row>
     <row r="8" spans="1:12" ht="19">
       <c r="A8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
@@ -1290,8 +1276,60 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37563C17-40C4-46F1-A921-3AD6C1317F4E}">
+  <dimension ref="C4:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="4" spans="3:3">
+      <c r="C4" s="10">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" ht="19">
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C592B-182E-401C-9C1A-AC8204AA6E12}">
-  <dimension ref="C5:C8"/>
+  <dimension ref="C7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -1299,24 +1337,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E22E31B-7BE3-4382-A507-EFBF3F9D2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026A2719-EFD8-47D6-8FCA-A145472B058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期目标" sheetId="1" r:id="rId1"/>
@@ -120,36 +120,6 @@
   </si>
   <si>
     <r>
-      <t>选择当前帧的相同元件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>以适应排兵布阵的 调整 需求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>@file: 03.</t>
     </r>
     <r>
@@ -414,6 +384,71 @@
   </si>
   <si>
     <t>内心独白  框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>选择当前帧的相同元件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以适应排兵布阵的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -843,36 +878,36 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -886,7 +921,7 @@
     <row r="6" spans="2:5">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -894,7 +929,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -935,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3E297-8015-48C0-A768-C852B8B9E1B5}">
   <dimension ref="B2:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -962,7 +997,7 @@
     <row r="3" spans="2:13" ht="19">
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5">
         <v>8</v>
@@ -994,10 +1029,10 @@
     <row r="4" spans="2:13" ht="20.5">
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
@@ -1006,42 +1041,42 @@
         <v>7</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="2:13" ht="19.5">
+    <row r="5" spans="2:13" ht="20.5">
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>0</v>
@@ -1059,7 +1094,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="K6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
@@ -1074,7 +1109,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
@@ -1159,10 +1194,10 @@
     <row r="2" spans="1:12" ht="19">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1179,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1196,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1210,7 +1245,7 @@
     <row r="5" spans="1:12" ht="19">
       <c r="A5" s="2"/>
       <c r="C5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1279,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37563C17-40C4-46F1-A921-3AD6C1317F4E}">
   <dimension ref="C4:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1292,32 +1327,32 @@
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="3:3" ht="19">
       <c r="C10" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1374,7 @@
   <sheetData>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026A2719-EFD8-47D6-8FCA-A145472B058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D558B2FD-C11E-473C-A664-A3A36D5D3B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期目标" sheetId="1" r:id="rId1"/>
-    <sheet name="2025-04" sheetId="2" r:id="rId2"/>
-    <sheet name="计划更新" sheetId="3" r:id="rId3"/>
-    <sheet name="2025-05" sheetId="5" r:id="rId4"/>
-    <sheet name="bug" sheetId="4" r:id="rId5"/>
+    <sheet name="计划更新" sheetId="3" r:id="rId2"/>
+    <sheet name="bug" sheetId="4" r:id="rId3"/>
+    <sheet name="2025-04" sheetId="2" r:id="rId4"/>
+    <sheet name="2025-05" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>打关键帧的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,6 +449,14 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e4x文档，types文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp文件夹移动到w文档项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +526,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,12 +545,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -556,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -574,14 +576,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -864,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -913,7 +916,7 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1"/>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="1"/>
@@ -925,12 +928,9 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="2:5" ht="19">
+    <row r="7" spans="2:5">
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5">
@@ -967,6 +967,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB664A95-C8C2-4E10-B367-FC7D555AF8C2}">
+  <dimension ref="A2:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="14.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="19">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="19">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="19">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="19">
+      <c r="A5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="19">
+      <c r="A6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="19">
+      <c r="A7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="19">
+      <c r="A8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="19">
+      <c r="A9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C592B-182E-401C-9C1A-AC8204AA6E12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D3E297-8015-48C0-A768-C852B8B9E1B5}">
   <dimension ref="B2:M11"/>
   <sheetViews>
@@ -1178,203 +1320,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB664A95-C8C2-4E10-B367-FC7D555AF8C2}">
-  <dimension ref="A2:L9"/>
-  <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col min="2" max="2" width="14.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="19">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="19">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="19">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="19">
-      <c r="A5" s="2"/>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="19">
-      <c r="A6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="19">
-      <c r="A7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="19">
-      <c r="A8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="19">
-      <c r="A9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37563C17-40C4-46F1-A921-3AD6C1317F4E}">
-  <dimension ref="C4:C10"/>
+  <dimension ref="C4:D10"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="4" spans="3:3">
-      <c r="C4" s="10">
+    <row r="4" spans="3:4">
+      <c r="C4" s="9">
         <v>45778</v>
       </c>
-    </row>
-    <row r="5" spans="3:3">
+      <c r="D4">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="19">
       <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
       <c r="C6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
       <c r="C7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="3:3">
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="12" t="s">
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="19">
+      <c r="C9" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="3:3" ht="19">
-      <c r="C10" s="11" t="s">
+      <c r="D9" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="19">
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1C592B-182E-401C-9C1A-AC8204AA6E12}">
-  <dimension ref="C7"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
-        <v>39</v>
+      <c r="D10" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D558B2FD-C11E-473C-A664-A3A36D5D3B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA3280-5C62-4908-A026-C4BD760B437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>打关键帧的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,9 @@
   <si>
     <t>dp文件夹移动到w文档项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加更多的字符画</t>
   </si>
 </sst>
 </file>
@@ -971,7 +974,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1029,6 +1032,9 @@
     </row>
     <row r="5" spans="1:12" ht="19">
       <c r="A5" s="2"/>
+      <c r="B5" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>

--- a/计划更新.xlsx
+++ b/计划更新.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAA3280-5C62-4908-A026-C4BD760B437E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E650493-BEFB-45AE-9D44-512FDE26E417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1470" yWindow="1950" windowWidth="19200" windowHeight="9980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="长期目标" sheetId="1" r:id="rId1"/>
@@ -871,7 +871,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -974,7 +974,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
